--- a/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
+++ b/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunchae\Desktop\널스피디아 - 설계\질병-진단 데이터 받은 파일_2021_11_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C8FF7F-12F7-4CAF-985F-37B6897D6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE056BCB-D3BA-4BFE-9474-52849DA82477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C94C12D-7D6B-48EA-8D1D-36CB57A8E641}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C94C12D-7D6B-48EA-8D1D-36CB57A8E641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
   <si>
     <t>호흡기계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,22 +260,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가스교환장애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급성통증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비효과적 호흡양상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지식부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>불안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심박출량 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비효과적 말초조직 관류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체액과다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비효과적 뇌조직 관류 위험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,6 +353,18 @@
   </si>
   <si>
     <t>동맥혈관질환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급성 통증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식 부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체액 과다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,109 +787,109 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -914,7 +906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -928,7 +920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -942,7 +934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -959,7 +951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -973,7 +965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -984,10 +976,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -998,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1034,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1062,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1076,10 +1068,10 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1090,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1129,10 +1121,10 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1154,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1168,10 +1160,10 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1185,62 +1177,62 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -1282,10 +1274,10 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1294,10 +1286,10 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -1306,178 +1298,178 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -1488,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -1502,10 +1494,10 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -1516,10 +1508,10 @@
         <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -1530,10 +1522,10 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,10 +1536,10 @@
         <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,10 +1550,10 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -1570,10 +1562,10 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
@@ -1582,10 +1574,10 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -1594,71 +1586,71 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +1661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,7 +1672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +1683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,7 +1694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
@@ -1713,78 +1705,78 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -1817,7 +1809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>

--- a/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
+++ b/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunchae\Desktop\널스피디아 - 설계\질병-진단 데이터 받은 파일_2021_11_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE056BCB-D3BA-4BFE-9474-52849DA82477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A8516-C3DD-494D-84A6-044ABD152EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C94C12D-7D6B-48EA-8D1D-36CB57A8E641}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="88">
   <si>
     <t>호흡기계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영양부족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>간호중재 3-6개까지 자유로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영양 불균형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +357,10 @@
   </si>
   <si>
     <t>체액 과다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영양불균형 : 영양부족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,8 +783,8 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,16 +796,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -817,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -828,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -839,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -850,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -861,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -872,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -883,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -903,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -931,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,7 +944,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -962,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -990,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1054,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1068,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1082,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,7 +1156,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -1193,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1204,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1215,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1226,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -1274,7 +1270,7 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,13 +1302,13 @@
         <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,13 +1316,13 @@
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,13 +1330,13 @@
         <v>29</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,13 +1344,13 @@
         <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,13 +1358,13 @@
         <v>29</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,13 +1372,13 @@
         <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,13 +1386,13 @@
         <v>29</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1400,13 @@
         <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1414,13 @@
         <v>29</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
         <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,13 +1428,13 @@
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1442,13 @@
         <v>29</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1456,13 @@
         <v>29</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,7 +1476,7 @@
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1494,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1522,7 +1518,7 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,7 +1532,7 @@
         <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1550,7 +1546,7 @@
         <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1574,7 +1570,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,7 +1582,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1594,7 +1590,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>36</v>
@@ -1605,13 +1601,13 @@
         <v>29</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,13 +1615,13 @@
         <v>29</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>39</v>
@@ -1644,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>41</v>
@@ -1710,11 +1706,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,11 +1718,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,11 +1730,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1746,11 +1742,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,11 +1754,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1766,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>49</v>

--- a/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
+++ b/nursing_knowledges/scripts/disease_diagnosis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eunchae\Desktop\프로젝트 설계 모음\널스피디아 - 설계\간호지식_데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546FCE8-BA60-4D6D-B773-3CA54DE75E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57649ED7-4E84-4172-B9A0-EF00FE6987AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C94C12D-7D6B-48EA-8D1D-36CB57A8E641}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="307">
   <si>
     <t>부정맥</t>
   </si>
@@ -157,9 +157,6 @@
     <t>가스교환 장애</t>
   </si>
   <si>
-    <t>영양불균형 : 영양부족</t>
-  </si>
-  <si>
     <t>결핵</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>불안</t>
-  </si>
-  <si>
-    <t>수면양상 장애</t>
   </si>
   <si>
     <t>기관지 확장증</t>
@@ -241,13 +235,7 @@
     <t>심혈관계</t>
   </si>
   <si>
-    <t>심박출량 감소의 위험</t>
-  </si>
-  <si>
     <t>비효과적 말초조직 관류</t>
-  </si>
-  <si>
-    <t>낙상 위험성</t>
   </si>
   <si>
     <t>허혈성 심장 질환</t>
@@ -275,9 +263,6 @@
   </si>
   <si>
     <t>염증성 심장 질환</t>
-  </si>
-  <si>
-    <t>감염 위험성</t>
   </si>
   <si>
     <t>대동맥판 협착</t>
@@ -505,9 +490,6 @@
     <t>복막염</t>
   </si>
   <si>
-    <t>체액 부족의 위험</t>
-  </si>
-  <si>
     <t>게실염</t>
   </si>
   <si>
@@ -688,16 +670,10 @@
     <t>손상위험성</t>
   </si>
   <si>
-    <t>낙상위험성</t>
-  </si>
-  <si>
     <t>배회</t>
   </si>
   <si>
     <t>보호자역할부담감</t>
-  </si>
-  <si>
-    <t>수면장애</t>
   </si>
   <si>
     <t>사고과정장애</t>
@@ -779,9 +755,6 @@
   </si>
   <si>
     <t>자율적 반사장애</t>
-  </si>
-  <si>
-    <t>영양 불균형</t>
   </si>
   <si>
     <t>추간판 탈출증(HIVD)</t>
@@ -970,15 +943,23 @@
     <t>매독</t>
   </si>
   <si>
-    <t>소화기계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>수면양상장애</t>
+  </si>
+  <si>
+    <t>심박출량 감소 위험</t>
+  </si>
+  <si>
+    <t>감염 위험</t>
+  </si>
+  <si>
+    <t>체액 부족 위험</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,13 +986,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1118,7 +1092,7 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1129,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,19 +1125,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,8 +1454,8 @@
   <dimension ref="A1:Z1103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1608,7 +1579,7 @@
       <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1676,7 +1647,7 @@
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1710,7 +1681,7 @@
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1744,8 +1715,8 @@
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1778,7 +1749,7 @@
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1887,7 +1858,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1920,13 +1891,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1958,10 +1929,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1994,7 +1965,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>40</v>
@@ -2030,12 +2001,12 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2066,7 +2037,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2100,7 +2071,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2131,10 +2102,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>40</v>
@@ -2167,10 +2138,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>38</v>
@@ -2203,13 +2174,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2239,13 +2210,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2275,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2311,13 +2282,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -2347,10 +2318,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2381,10 +2352,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>40</v>
@@ -2417,10 +2388,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2451,10 +2422,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>40</v>
@@ -2487,13 +2458,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2523,10 +2494,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>38</v>
@@ -2559,10 +2530,10 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2593,10 +2564,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2627,10 +2598,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2661,10 +2632,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2695,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2729,10 +2700,10 @@
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2763,10 +2734,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2793,17 +2764,17 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2826,16 +2797,16 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2862,14 +2833,14 @@
     </row>
     <row r="40" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2896,14 +2867,14 @@
     </row>
     <row r="41" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2930,16 +2901,16 @@
     </row>
     <row r="42" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -2966,16 +2937,16 @@
     </row>
     <row r="43" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3002,16 +2973,16 @@
     </row>
     <row r="44" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3038,16 +3009,16 @@
     </row>
     <row r="45" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3074,16 +3045,16 @@
     </row>
     <row r="46" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3110,16 +3081,16 @@
     </row>
     <row r="47" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3146,16 +3117,16 @@
     </row>
     <row r="48" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3182,16 +3153,16 @@
     </row>
     <row r="49" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3218,16 +3189,16 @@
     </row>
     <row r="50" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -3254,16 +3225,16 @@
     </row>
     <row r="51" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -3290,16 +3261,16 @@
     </row>
     <row r="52" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C52" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -3326,16 +3297,16 @@
     </row>
     <row r="53" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -3362,16 +3333,16 @@
     </row>
     <row r="54" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -3398,16 +3369,16 @@
     </row>
     <row r="55" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -3434,13 +3405,13 @@
     </row>
     <row r="56" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>40</v>
@@ -3470,16 +3441,16 @@
     </row>
     <row r="57" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -3506,16 +3477,16 @@
     </row>
     <row r="58" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -3542,16 +3513,16 @@
     </row>
     <row r="59" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3578,7 +3549,7 @@
     </row>
     <row r="60" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>2</v>
@@ -3612,14 +3583,14 @@
     </row>
     <row r="61" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3646,14 +3617,14 @@
     </row>
     <row r="62" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -3680,10 +3651,10 @@
     </row>
     <row r="63" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>3</v>
@@ -3714,16 +3685,16 @@
     </row>
     <row r="64" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3750,16 +3721,16 @@
     </row>
     <row r="65" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -3786,10 +3757,10 @@
     </row>
     <row r="66" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>6</v>
@@ -3820,7 +3791,7 @@
     </row>
     <row r="67" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>7</v>
@@ -3854,7 +3825,7 @@
     </row>
     <row r="68" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>7</v>
@@ -3888,13 +3859,13 @@
     </row>
     <row r="69" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3922,7 +3893,7 @@
     </row>
     <row r="70" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>7</v>
@@ -3956,13 +3927,13 @@
     </row>
     <row r="71" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3990,7 +3961,7 @@
     </row>
     <row r="72" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>11</v>
@@ -4024,14 +3995,14 @@
     </row>
     <row r="73" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -4058,14 +4029,14 @@
     </row>
     <row r="74" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>69</v>
+        <v>304</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4092,14 +4063,14 @@
     </row>
     <row r="75" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -4126,14 +4097,14 @@
     </row>
     <row r="76" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -4160,14 +4131,14 @@
     </row>
     <row r="77" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4194,14 +4165,14 @@
     </row>
     <row r="78" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -4228,14 +4199,14 @@
     </row>
     <row r="79" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -4262,7 +4233,7 @@
     </row>
     <row r="80" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>13</v>
@@ -4271,7 +4242,7 @@
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -4298,7 +4269,7 @@
     </row>
     <row r="81" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>13</v>
@@ -4307,7 +4278,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -4334,7 +4305,7 @@
     </row>
     <row r="82" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>13</v>
@@ -4343,7 +4314,7 @@
         <v>15</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -4370,7 +4341,7 @@
     </row>
     <row r="83" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>13</v>
@@ -4379,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -4406,7 +4377,7 @@
     </row>
     <row r="84" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>13</v>
@@ -4415,7 +4386,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -4442,7 +4413,7 @@
     </row>
     <row r="85" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>13</v>
@@ -4451,7 +4422,7 @@
         <v>16</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -4478,7 +4449,7 @@
     </row>
     <row r="86" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>13</v>
@@ -4512,7 +4483,7 @@
     </row>
     <row r="87" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>18</v>
@@ -4521,7 +4492,7 @@
         <v>19</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -4548,7 +4519,7 @@
     </row>
     <row r="88" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>18</v>
@@ -4557,7 +4528,7 @@
         <v>19</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -4584,7 +4555,7 @@
     </row>
     <row r="89" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>18</v>
@@ -4596,7 +4567,7 @@
         <v>40</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -4622,7 +4593,7 @@
     </row>
     <row r="90" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>18</v>
@@ -4655,15 +4626,15 @@
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
+      <c r="A91" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4686,18 +4657,18 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -4724,16 +4695,16 @@
     </row>
     <row r="93" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -4760,19 +4731,19 @@
     </row>
     <row r="94" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -4798,16 +4769,16 @@
     </row>
     <row r="95" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>57</v>
+        <v>97</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -4834,16 +4805,16 @@
     </row>
     <row r="96" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -4870,16 +4841,16 @@
     </row>
     <row r="97" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -4906,16 +4877,16 @@
     </row>
     <row r="98" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -4942,16 +4913,16 @@
     </row>
     <row r="99" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -4978,16 +4949,16 @@
     </row>
     <row r="100" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -5014,16 +4985,16 @@
     </row>
     <row r="101" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -5050,16 +5021,16 @@
     </row>
     <row r="102" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -5086,19 +5057,19 @@
     </row>
     <row r="103" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -5124,16 +5095,16 @@
     </row>
     <row r="104" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -5160,16 +5131,16 @@
     </row>
     <row r="105" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -5196,16 +5167,16 @@
     </row>
     <row r="106" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -5232,16 +5203,16 @@
     </row>
     <row r="107" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -5268,19 +5239,19 @@
     </row>
     <row r="108" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -5306,16 +5277,16 @@
     </row>
     <row r="109" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -5342,16 +5313,16 @@
     </row>
     <row r="110" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -5378,16 +5349,16 @@
     </row>
     <row r="111" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -5414,13 +5385,13 @@
     </row>
     <row r="112" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -5448,16 +5419,16 @@
     </row>
     <row r="113" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -5484,16 +5455,16 @@
     </row>
     <row r="114" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -5520,16 +5491,16 @@
     </row>
     <row r="115" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>57</v>
+        <v>113</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -5556,16 +5527,16 @@
     </row>
     <row r="116" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -5592,16 +5563,16 @@
     </row>
     <row r="117" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -5628,16 +5599,16 @@
     </row>
     <row r="118" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -5663,19 +5634,19 @@
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="8" t="s">
+      <c r="A119" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E119" s="8"/>
+      <c r="D119" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E119" s="10"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -5698,18 +5669,18 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>57</v>
+        <v>118</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5736,16 +5707,16 @@
     </row>
     <row r="121" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>57</v>
+        <v>119</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -5772,16 +5743,16 @@
     </row>
     <row r="122" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>57</v>
+        <v>120</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -5806,21 +5777,21 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>312</v>
+    <row r="123" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -5846,16 +5817,16 @@
     </row>
     <row r="124" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C124" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -5882,16 +5853,16 @@
     </row>
     <row r="125" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C125" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -5918,16 +5889,16 @@
     </row>
     <row r="126" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="C126" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -5954,19 +5925,19 @@
     </row>
     <row r="127" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C127" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -5992,16 +5963,16 @@
     </row>
     <row r="128" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C128" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -6028,16 +5999,16 @@
     </row>
     <row r="129" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C129" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -6064,16 +6035,16 @@
     </row>
     <row r="130" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="C130" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -6100,19 +6071,19 @@
     </row>
     <row r="131" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C131" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -6138,16 +6109,16 @@
     </row>
     <row r="132" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C132" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -6174,16 +6145,16 @@
     </row>
     <row r="133" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C133" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
@@ -6210,19 +6181,19 @@
     </row>
     <row r="134" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C134" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -6248,16 +6219,16 @@
     </row>
     <row r="135" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C135" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -6284,16 +6255,16 @@
     </row>
     <row r="136" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C136" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
@@ -6320,19 +6291,19 @@
     </row>
     <row r="137" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C137" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -6358,16 +6329,16 @@
     </row>
     <row r="138" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C138" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -6394,16 +6365,16 @@
     </row>
     <row r="139" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C139" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -6430,16 +6401,16 @@
     </row>
     <row r="140" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
@@ -6466,16 +6437,16 @@
     </row>
     <row r="141" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
@@ -6502,16 +6473,16 @@
     </row>
     <row r="142" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -6538,19 +6509,19 @@
     </row>
     <row r="143" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
@@ -6576,16 +6547,16 @@
     </row>
     <row r="144" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -6612,16 +6583,16 @@
     </row>
     <row r="145" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
@@ -6648,16 +6619,16 @@
     </row>
     <row r="146" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
@@ -6684,16 +6655,16 @@
     </row>
     <row r="147" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="D147" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -6720,13 +6691,13 @@
     </row>
     <row r="148" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -6754,16 +6725,16 @@
     </row>
     <row r="149" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -6790,16 +6761,16 @@
     </row>
     <row r="150" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -6826,16 +6797,16 @@
     </row>
     <row r="151" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -6862,16 +6833,16 @@
     </row>
     <row r="152" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -6898,16 +6869,16 @@
     </row>
     <row r="153" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -6934,16 +6905,16 @@
     </row>
     <row r="154" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -6970,16 +6941,16 @@
     </row>
     <row r="155" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
@@ -7006,16 +6977,16 @@
     </row>
     <row r="156" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
@@ -7042,16 +7013,16 @@
     </row>
     <row r="157" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -7078,13 +7049,13 @@
     </row>
     <row r="158" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -7112,17 +7083,17 @@
     </row>
     <row r="159" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -7148,13 +7119,13 @@
     </row>
     <row r="160" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -7182,13 +7153,13 @@
     </row>
     <row r="161" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -7216,13 +7187,13 @@
     </row>
     <row r="162" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -7250,13 +7221,13 @@
     </row>
     <row r="163" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -7284,13 +7255,13 @@
     </row>
     <row r="164" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -7318,13 +7289,13 @@
     </row>
     <row r="165" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -7352,13 +7323,13 @@
     </row>
     <row r="166" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -7386,13 +7357,13 @@
     </row>
     <row r="167" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7420,13 +7391,13 @@
     </row>
     <row r="168" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7454,13 +7425,13 @@
     </row>
     <row r="169" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7488,17 +7459,17 @@
     </row>
     <row r="170" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D170" s="5"/>
-      <c r="E170" s="10" t="s">
-        <v>176</v>
+      <c r="E170" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -7524,13 +7495,13 @@
     </row>
     <row r="171" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7558,13 +7529,13 @@
     </row>
     <row r="172" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -7592,13 +7563,13 @@
     </row>
     <row r="173" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -7626,13 +7597,13 @@
     </row>
     <row r="174" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -7660,16 +7631,16 @@
     </row>
     <row r="175" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
@@ -7696,16 +7667,16 @@
     </row>
     <row r="176" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
@@ -7732,16 +7703,16 @@
     </row>
     <row r="177" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
@@ -7768,13 +7739,13 @@
     </row>
     <row r="178" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -7802,13 +7773,13 @@
     </row>
     <row r="179" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -7836,13 +7807,13 @@
     </row>
     <row r="180" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7870,17 +7841,17 @@
     </row>
     <row r="181" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="5"/>
@@ -7906,13 +7877,13 @@
     </row>
     <row r="182" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7939,17 +7910,17 @@
       <c r="Z182" s="5"/>
     </row>
     <row r="183" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
+      <c r="A183" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
@@ -7972,18 +7943,18 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -8010,16 +7981,16 @@
     </row>
     <row r="185" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -8046,16 +8017,16 @@
     </row>
     <row r="186" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -8082,16 +8053,16 @@
     </row>
     <row r="187" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
@@ -8118,16 +8089,16 @@
     </row>
     <row r="188" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -8154,16 +8125,16 @@
     </row>
     <row r="189" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B189" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -8190,13 +8161,13 @@
     </row>
     <row r="190" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -8224,13 +8195,13 @@
     </row>
     <row r="191" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -8258,13 +8229,13 @@
     </row>
     <row r="192" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -8292,16 +8263,16 @@
     </row>
     <row r="193" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
@@ -8328,16 +8299,16 @@
     </row>
     <row r="194" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
@@ -8364,16 +8335,16 @@
     </row>
     <row r="195" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
@@ -8400,16 +8371,16 @@
     </row>
     <row r="196" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
@@ -8436,16 +8407,16 @@
     </row>
     <row r="197" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
@@ -8472,16 +8443,16 @@
     </row>
     <row r="198" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -8508,16 +8479,16 @@
     </row>
     <row r="199" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -8544,16 +8515,16 @@
     </row>
     <row r="200" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -8580,16 +8551,16 @@
     </row>
     <row r="201" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -8616,16 +8587,16 @@
     </row>
     <row r="202" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
@@ -8652,16 +8623,16 @@
     </row>
     <row r="203" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -8688,16 +8659,16 @@
     </row>
     <row r="204" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -8724,16 +8695,16 @@
     </row>
     <row r="205" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -8760,16 +8731,16 @@
     </row>
     <row r="206" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -8796,16 +8767,16 @@
     </row>
     <row r="207" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
@@ -8832,16 +8803,16 @@
     </row>
     <row r="208" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
@@ -8868,16 +8839,16 @@
     </row>
     <row r="209" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
@@ -8904,16 +8875,16 @@
     </row>
     <row r="210" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -8940,16 +8911,16 @@
     </row>
     <row r="211" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
@@ -8976,16 +8947,16 @@
     </row>
     <row r="212" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
@@ -9012,16 +8983,16 @@
     </row>
     <row r="213" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
@@ -9048,16 +9019,16 @@
     </row>
     <row r="214" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
@@ -9084,16 +9055,16 @@
     </row>
     <row r="215" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C215" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
@@ -9120,16 +9091,16 @@
     </row>
     <row r="216" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -9156,16 +9127,16 @@
     </row>
     <row r="217" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -9192,16 +9163,16 @@
     </row>
     <row r="218" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
@@ -9228,16 +9199,16 @@
     </row>
     <row r="219" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
@@ -9264,16 +9235,16 @@
     </row>
     <row r="220" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
@@ -9300,16 +9271,16 @@
     </row>
     <row r="221" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -9336,13 +9307,13 @@
     </row>
     <row r="222" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>38</v>
@@ -9372,16 +9343,16 @@
     </row>
     <row r="223" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -9408,16 +9379,16 @@
     </row>
     <row r="224" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -9444,16 +9415,16 @@
     </row>
     <row r="225" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
@@ -9480,16 +9451,16 @@
     </row>
     <row r="226" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -9516,16 +9487,16 @@
     </row>
     <row r="227" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
@@ -9552,16 +9523,16 @@
     </row>
     <row r="228" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -9588,16 +9559,16 @@
     </row>
     <row r="229" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -9624,13 +9595,13 @@
     </row>
     <row r="230" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -9658,16 +9629,16 @@
     </row>
     <row r="231" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -9694,16 +9665,16 @@
     </row>
     <row r="232" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
@@ -9730,16 +9701,16 @@
     </row>
     <row r="233" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
@@ -9766,16 +9737,16 @@
     </row>
     <row r="234" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -9802,16 +9773,16 @@
     </row>
     <row r="235" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
@@ -9838,19 +9809,19 @@
     </row>
     <row r="236" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
@@ -9876,16 +9847,16 @@
     </row>
     <row r="237" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -9912,16 +9883,16 @@
     </row>
     <row r="238" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
@@ -9948,16 +9919,16 @@
     </row>
     <row r="239" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
@@ -9984,16 +9955,16 @@
     </row>
     <row r="240" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -10020,16 +9991,16 @@
     </row>
     <row r="241" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B241" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D241" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -10056,16 +10027,16 @@
     </row>
     <row r="242" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -10092,16 +10063,16 @@
     </row>
     <row r="243" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
@@ -10128,16 +10099,16 @@
     </row>
     <row r="244" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C244" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D244" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -10164,16 +10135,16 @@
     </row>
     <row r="245" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -10200,16 +10171,16 @@
     </row>
     <row r="246" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -10236,16 +10207,16 @@
     </row>
     <row r="247" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -10272,16 +10243,16 @@
     </row>
     <row r="248" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -10308,16 +10279,16 @@
     </row>
     <row r="249" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -10344,16 +10315,16 @@
     </row>
     <row r="250" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
@@ -10380,16 +10351,16 @@
     </row>
     <row r="251" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -10416,13 +10387,13 @@
     </row>
     <row r="252" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -10450,16 +10421,16 @@
     </row>
     <row r="253" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
@@ -10486,18 +10457,18 @@
     </row>
     <row r="254" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E254" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E254" s="10"/>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
@@ -10522,13 +10493,13 @@
     </row>
     <row r="255" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -10556,13 +10527,13 @@
     </row>
     <row r="256" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -10590,13 +10561,13 @@
     </row>
     <row r="257" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -10624,13 +10595,13 @@
     </row>
     <row r="258" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -10658,13 +10629,13 @@
     </row>
     <row r="259" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -10692,13 +10663,13 @@
     </row>
     <row r="260" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -10726,13 +10697,13 @@
     </row>
     <row r="261" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -10760,13 +10731,13 @@
     </row>
     <row r="262" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -10794,13 +10765,13 @@
     </row>
     <row r="263" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -10828,13 +10799,13 @@
     </row>
     <row r="264" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -10862,13 +10833,13 @@
     </row>
     <row r="265" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -10896,13 +10867,13 @@
     </row>
     <row r="266" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -10930,13 +10901,13 @@
     </row>
     <row r="267" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -10964,13 +10935,13 @@
     </row>
     <row r="268" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -10998,13 +10969,13 @@
     </row>
     <row r="269" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -11032,13 +11003,13 @@
     </row>
     <row r="270" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -11066,13 +11037,13 @@
     </row>
     <row r="271" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -11099,17 +11070,17 @@
       <c r="Z271" s="5"/>
     </row>
     <row r="272" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+      <c r="A272" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
@@ -11132,15 +11103,15 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -11168,13 +11139,13 @@
     </row>
     <row r="274" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -11202,13 +11173,13 @@
     </row>
     <row r="275" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -11236,13 +11207,13 @@
     </row>
     <row r="276" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -11270,13 +11241,13 @@
     </row>
     <row r="277" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -11304,13 +11275,13 @@
     </row>
     <row r="278" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -11338,13 +11309,13 @@
     </row>
     <row r="279" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -11372,13 +11343,13 @@
     </row>
     <row r="280" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -11406,13 +11377,13 @@
     </row>
     <row r="281" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -11440,13 +11411,13 @@
     </row>
     <row r="282" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -11474,13 +11445,13 @@
     </row>
     <row r="283" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -11508,13 +11479,13 @@
     </row>
     <row r="284" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -11541,17 +11512,17 @@
       <c r="Z284" s="5"/>
     </row>
     <row r="285" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
+      <c r="A285" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D285" s="10"/>
+      <c r="E285" s="10"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
@@ -11574,15 +11545,15 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -11610,13 +11581,13 @@
     </row>
     <row r="287" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -11644,13 +11615,13 @@
     </row>
     <row r="288" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -11678,13 +11649,13 @@
     </row>
     <row r="289" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -11712,13 +11683,13 @@
     </row>
     <row r="290" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -11746,13 +11717,13 @@
     </row>
     <row r="291" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C291" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="B291" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -11780,13 +11751,13 @@
     </row>
     <row r="292" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -11813,17 +11784,17 @@
       <c r="Z292" s="5"/>
     </row>
     <row r="293" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+      <c r="A293" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
@@ -11846,7 +11817,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
